--- a/backend/src/tmp/tareas.xlsx
+++ b/backend/src/tmp/tareas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="57">
   <si>
     <t>Cronograma de tareas</t>
   </si>
@@ -46,34 +46,43 @@
     <t>1</t>
   </si>
   <si>
+    <t>ascasc</t>
+  </si>
+  <si>
+    <t>2023-11-08T05:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2023-11-29T05:00:00.000Z</t>
+  </si>
+  <si>
+    <t>En progreso</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>ascas</t>
+  </si>
+  <si>
+    <t>2023-12-02T05:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
     <t>asc</t>
   </si>
   <si>
-    <t>2023-11-09T05:00:00.000Z</t>
+    <t>2023-11-17T05:00:00.000Z</t>
   </si>
   <si>
     <t>2023-11-22T05:00:00.000Z</t>
   </si>
   <si>
-    <t>En progreso</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>dfgn</t>
-  </si>
-  <si>
-    <t>2023-11-29T05:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>ascasc</t>
+    <t>3</t>
   </si>
   <si>
     <t>2023-11-10T05:00:00.000Z</t>
@@ -82,13 +91,97 @@
     <t>2023-11-23T05:00:00.000Z</t>
   </si>
   <si>
-    <t>2.1.1</t>
-  </si>
-  <si>
-    <t>asdvasd</t>
+    <t>Finalizado</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>2023-11-13T05:00:00.000Z</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>scasc</t>
+  </si>
+  <si>
+    <t>2023-12-07T05:00:00.000Z</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>asd</t>
   </si>
   <si>
     <t>2023-11-30T05:00:00.000Z</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>vdvdf</t>
+  </si>
+  <si>
+    <t>2023-11-18T05:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2023-11-27T05:00:00.000Z</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2023-12-05T05:00:00.000Z</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2023-11-03T05:00:00.000Z</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2023-11-28T05:00:00.000Z</t>
+  </si>
+  <si>
+    <t>12.1</t>
+  </si>
+  <si>
+    <t>sdfvsdf</t>
+  </si>
+  <si>
+    <t>2023-12-04T05:00:00.000Z</t>
+  </si>
+  <si>
+    <t>12.2</t>
+  </si>
+  <si>
+    <t>casc</t>
+  </si>
+  <si>
+    <t>2023-11-14T05:00:00.000Z</t>
+  </si>
+  <si>
+    <t>12.3</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
 </sst>
 </file>
@@ -489,7 +582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I19"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="5" width="22" customWidth="1"/>
@@ -569,11 +662,8 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
@@ -593,7 +683,7 @@
         <v>20</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -613,21 +703,317 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
         <v>24</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>25</v>
       </c>
       <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
         <v>14</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
         <v>15</v>
       </c>
     </row>

--- a/backend/src/tmp/tareas.xlsx
+++ b/backend/src/tmp/tareas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Cronograma de tareas</t>
   </si>
@@ -46,142 +46,49 @@
     <t>1</t>
   </si>
   <si>
+    <t>asc</t>
+  </si>
+  <si>
+    <t>09-11-2023</t>
+  </si>
+  <si>
+    <t>22-11-2023</t>
+  </si>
+  <si>
+    <t>En progreso</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>dfgn</t>
+  </si>
+  <si>
+    <t>29-11-2023</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
     <t>ascasc</t>
   </si>
   <si>
-    <t>2023-11-08T05:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2023-11-29T05:00:00.000Z</t>
-  </si>
-  <si>
-    <t>En progreso</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>ascas</t>
-  </si>
-  <si>
-    <t>2023-12-02T05:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>asc</t>
-  </si>
-  <si>
-    <t>2023-11-17T05:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2023-11-22T05:00:00.000Z</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2023-11-10T05:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2023-11-23T05:00:00.000Z</t>
-  </si>
-  <si>
-    <t>Finalizado</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>ddd</t>
-  </si>
-  <si>
-    <t>2023-11-13T05:00:00.000Z</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>scasc</t>
-  </si>
-  <si>
-    <t>2023-12-07T05:00:00.000Z</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>2023-11-30T05:00:00.000Z</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>vdvdf</t>
-  </si>
-  <si>
-    <t>2023-11-18T05:00:00.000Z</t>
-  </si>
-  <si>
-    <t>2023-11-27T05:00:00.000Z</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>2023-12-05T05:00:00.000Z</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>2023-11-03T05:00:00.000Z</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>2023-11-28T05:00:00.000Z</t>
-  </si>
-  <si>
-    <t>12.1</t>
-  </si>
-  <si>
-    <t>sdfvsdf</t>
-  </si>
-  <si>
-    <t>2023-12-04T05:00:00.000Z</t>
-  </si>
-  <si>
-    <t>12.2</t>
-  </si>
-  <si>
-    <t>casc</t>
-  </si>
-  <si>
-    <t>2023-11-14T05:00:00.000Z</t>
-  </si>
-  <si>
-    <t>12.3</t>
-  </si>
-  <si>
-    <t>13</t>
+    <t>10-11-2023</t>
+  </si>
+  <si>
+    <t>23-11-2023</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>asdvasd</t>
+  </si>
+  <si>
+    <t>30-11-2023</t>
   </si>
 </sst>
 </file>
@@ -582,12 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="5" width="22" customWidth="1"/>
-    <col min="6" max="7" width="26" customWidth="1"/>
-    <col min="8" max="9" width="22" customWidth="1"/>
+    <col min="1" max="9" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -662,8 +567,11 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
@@ -683,7 +591,7 @@
         <v>20</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -703,317 +611,21 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" t="s">
         <v>15</v>
       </c>
     </row>

--- a/backend/src/tmp/tareas.xlsx
+++ b/backend/src/tmp/tareas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Cronograma de tareas</t>
   </si>
@@ -46,49 +46,19 @@
     <t>1</t>
   </si>
   <si>
-    <t>asc</t>
-  </si>
-  <si>
-    <t>09-11-2023</t>
-  </si>
-  <si>
-    <t>22-11-2023</t>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>17-11-2023</t>
+  </si>
+  <si>
+    <t>12-12-2023</t>
   </si>
   <si>
     <t>En progreso</t>
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>dfgn</t>
-  </si>
-  <si>
-    <t>29-11-2023</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>ascasc</t>
-  </si>
-  <si>
-    <t>10-11-2023</t>
-  </si>
-  <si>
-    <t>23-11-2023</t>
-  </si>
-  <si>
-    <t>2.1.1</t>
-  </si>
-  <si>
-    <t>asdvasd</t>
-  </si>
-  <si>
-    <t>30-11-2023</t>
   </si>
 </sst>
 </file>
@@ -489,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="9" width="22" customWidth="1"/>
@@ -545,7 +515,7 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -557,75 +527,6 @@
         <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
         <v>15</v>
       </c>
     </row>

--- a/backend/src/tmp/tareas.xlsx
+++ b/backend/src/tmp/tareas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
   <si>
     <t>Cronograma de tareas</t>
   </si>
@@ -46,19 +46,103 @@
     <t>1</t>
   </si>
   <si>
-    <t>asd</t>
+    <t>asc</t>
+  </si>
+  <si>
+    <t>11-11-2023</t>
+  </si>
+  <si>
+    <t>24-11-2023</t>
+  </si>
+  <si>
+    <t>En progreso</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>bgbgbg</t>
+  </si>
+  <si>
+    <t>22-11-2023</t>
+  </si>
+  <si>
+    <t>29-11-2023</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>09-11-2023</t>
+  </si>
+  <si>
+    <t>43%</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>bbbb</t>
+  </si>
+  <si>
+    <t>08-11-2023</t>
+  </si>
+  <si>
+    <t>Atrasado</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>17-11-2023</t>
   </si>
   <si>
-    <t>12-12-2023</t>
-  </si>
-  <si>
-    <t>En progreso</t>
-  </si>
-  <si>
-    <t>0%</t>
+    <t>25-11-2023</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>23-11-2023</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>sss</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>10-11-2023</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>16-11-2023</t>
+  </si>
+  <si>
+    <t>30-11-2023</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -459,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I15"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="9" width="22" customWidth="1"/>
@@ -515,7 +599,7 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -527,6 +611,282 @@
         <v>14</v>
       </c>
       <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" t="s">
         <v>15</v>
       </c>
     </row>

--- a/backend/src/tmp/tareas.xlsx
+++ b/backend/src/tmp/tareas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>Cronograma de tareas</t>
   </si>
@@ -46,13 +46,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>asc</t>
-  </si>
-  <si>
-    <t>11-11-2023</t>
-  </si>
-  <si>
-    <t>24-11-2023</t>
+    <t>mi tarea</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>08-12-2023</t>
+  </si>
+  <si>
+    <t>15-12-2023</t>
   </si>
   <si>
     <t>En progreso</t>
@@ -61,88 +64,70 @@
     <t>0%</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>bgbgbg</t>
-  </si>
-  <si>
-    <t>22-11-2023</t>
-  </si>
-  <si>
-    <t>29-11-2023</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>09-11-2023</t>
-  </si>
-  <si>
-    <t>43%</t>
+    <t/>
+  </si>
+  <si>
+    <t>13-12-2023</t>
+  </si>
+  <si>
+    <t>21-12-2023</t>
+  </si>
+  <si>
+    <t>Finalizado</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>nueva en kanban</t>
+  </si>
+  <si>
+    <t>des</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>otra!!!</t>
+  </si>
+  <si>
+    <t>07-12-2023</t>
+  </si>
+  <si>
+    <t>2.1.2</t>
+  </si>
+  <si>
+    <t>sista</t>
+  </si>
+  <si>
+    <t>acs</t>
+  </si>
+  <si>
+    <t>12-12-2023</t>
+  </si>
+  <si>
+    <t>23-12-2023</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>bbbb</t>
-  </si>
-  <si>
-    <t>08-11-2023</t>
-  </si>
-  <si>
-    <t>Atrasado</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>17-11-2023</t>
-  </si>
-  <si>
-    <t>25-11-2023</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>23-11-2023</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>sss</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>10-11-2023</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>16-11-2023</t>
-  </si>
-  <si>
-    <t>30-11-2023</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>dependeineten</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>01-12-2023</t>
+  </si>
+  <si>
+    <t>19-12-2023</t>
   </si>
 </sst>
 </file>
@@ -543,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="9" width="22" customWidth="1"/>
@@ -595,66 +580,75 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
         <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
@@ -662,232 +656,80 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/tmp/tareas.xlsx
+++ b/backend/src/tmp/tareas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
   <si>
     <t>Cronograma de tareas</t>
   </si>
@@ -46,88 +46,157 @@
     <t>1</t>
   </si>
   <si>
-    <t>mi tarea</t>
-  </si>
-  <si>
-    <t>descripcion</t>
+    <t>tarea</t>
+  </si>
+  <si>
+    <t>asc</t>
+  </si>
+  <si>
+    <t>14-12-2023</t>
+  </si>
+  <si>
+    <t>20-12-2023</t>
+  </si>
+  <si>
+    <t>No iniciado</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>depend</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>03-12-2023</t>
+  </si>
+  <si>
+    <t>27-12-2023</t>
+  </si>
+  <si>
+    <t>En progreso</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>cas</t>
   </si>
   <si>
     <t>08-12-2023</t>
   </si>
   <si>
-    <t>15-12-2023</t>
-  </si>
-  <si>
-    <t>En progreso</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>13-12-2023</t>
+    <t>Finalizado</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>07-12-2023</t>
+  </si>
+  <si>
+    <t>68%</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>asdasdad</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>17-12-2023</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>123123</t>
+  </si>
+  <si>
+    <t>asdasdas</t>
+  </si>
+  <si>
+    <t>10-12-2023</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>ewrtt</t>
+  </si>
+  <si>
+    <t>asfaf</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>dep</t>
+  </si>
+  <si>
+    <t>aca</t>
+  </si>
+  <si>
+    <t>22-12-2023</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>30-12-2023</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>TES PADRE</t>
   </si>
   <si>
     <t>21-12-2023</t>
   </si>
   <si>
-    <t>Finalizado</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>nueva en kanban</t>
-  </si>
-  <si>
-    <t>des</t>
-  </si>
-  <si>
-    <t>2.1.1</t>
-  </si>
-  <si>
-    <t>otra!!!</t>
-  </si>
-  <si>
-    <t>07-12-2023</t>
-  </si>
-  <si>
-    <t>2.1.2</t>
-  </si>
-  <si>
-    <t>sista</t>
-  </si>
-  <si>
-    <t>acs</t>
-  </si>
-  <si>
-    <t>12-12-2023</t>
-  </si>
-  <si>
-    <t>23-12-2023</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>dependeineten</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>01-12-2023</t>
-  </si>
-  <si>
-    <t>19-12-2023</t>
+    <t>9</t>
+  </si>
+  <si>
+    <t>te</t>
+  </si>
+  <si>
+    <t>09-12-2023</t>
+  </si>
+  <si>
+    <t>29-12-2023</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>NaN-NaN-NaN</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -528,7 +597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I16"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="9" width="22" customWidth="1"/>
@@ -607,25 +676,25 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -636,99 +705,307 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
         <v>31</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
         <v>37</v>
       </c>
-      <c r="G8" t="s">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="H8" t="s">
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" t="s">
         <v>15</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
         <v>16</v>
       </c>
     </row>
